--- a/scripts/MID_conditions.xlsx
+++ b/scripts/MID_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlotte/Dropbox/Charite_PhD/tasks/MID_py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB8C67C-9FFE-1646-9D5A-CC32C0677B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB95092-136A-7E47-A190-7F4EEE1B7A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{155624E5-BEA1-8C43-B7B4-B1E2F6F44E60}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>yellow</t>
   </si>
   <si>
-    <t>(-0.6, 0)</t>
-  </si>
-  <si>
     <t>right</t>
   </si>
   <si>
@@ -61,10 +58,13 @@
     <t>corr_button</t>
   </si>
   <si>
-    <t>(0.35, 0)</t>
-  </si>
-  <si>
     <t>red</t>
+  </si>
+  <si>
+    <t>(-0.45, 0)</t>
+  </si>
+  <si>
+    <t>(0.45, 0)</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -445,10 +445,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -456,10 +456,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -467,10 +467,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -478,32 +478,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
